--- a/trunk/计划表.xlsx
+++ b/trunk/计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全书，几道基础题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>微分方程:1次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,11 +66,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一单元/第一列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>看一遍，听写一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第21单元/第一列:1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济增长II:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习全书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微分方程:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听写一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第21单元/第1列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍课本，记住框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济波动导论：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第24单元/第2列:1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一小节9题，第二小节过一遍知识点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看课本，看到串谋之前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寡头垄断：1次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -116,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -124,26 +180,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D7"/>
+  <dimension ref="A3:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -451,75 +626,158 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="13">
+        <v>41202</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14"/>
+      <c r="B6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="15"/>
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
-        <v>41202</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="13">
+        <v>41203</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="14"/>
+      <c r="B13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/计划表.xlsx
+++ b/trunk/计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,174 @@
   </si>
   <si>
     <t>寡头垄断：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济波动导论：2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放经济：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS-LM模型I：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍课本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍辅导书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看课本，看辅导书例题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听写一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第24单元/第2列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第22单元/第3列:1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS-LM模型I：2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍辅导书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS-LM模型II：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失业：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课本一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第22单元/第3列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第23单元/第4列:1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一遍，标注单词，第五章结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本银行史/第五章:1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中近史/第一章:1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS-LM模型II：2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济增长I：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导书一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放经济IS-LM：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中近史/第一章:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中近史/第二章:1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放经济IS-LM：2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济增长II：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总供给:1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课本一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导书一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中近史/第二章:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第23单元/第4列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第25单元/第5列:1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,25 +468,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,17 +810,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D14"/>
+  <dimension ref="A3:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -644,10 +839,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="13">
+      <c r="A4" s="20">
         <v>41202</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -658,8 +853,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -668,7 +863,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="14"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -680,7 +875,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="15"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -692,10 +887,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="13">
+      <c r="A8" s="20">
         <v>41203</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -706,8 +901,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -716,8 +911,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
@@ -726,11 +921,11 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="14"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -738,7 +933,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="14"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -750,8 +945,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -762,8 +957,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
@@ -771,13 +966,296 @@
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="20">
+        <v>41204</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="24"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="24"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="24"/>
+      <c r="B18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="24"/>
+      <c r="B19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="24"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="20">
+        <v>41205</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="21"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="21"/>
+      <c r="B27" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="20">
+        <v>41206</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="21"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="21"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="21"/>
+      <c r="B31" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="22"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="20">
+        <v>41207</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="24"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="24"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="24"/>
+      <c r="B36" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="24"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="24"/>
+      <c r="B38" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="25"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="18">
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A28:A32"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B28:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/计划表.xlsx
+++ b/trunk/计划表.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="进度表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,62 @@
   </si>
   <si>
     <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定政策:1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济波动：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总供给:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第21单元/第1列：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第25单元/第5列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听写一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第26单元/第6列：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听写一遍，看一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定政策:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府债务：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课本一遍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,6 +545,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,23 +560,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D39"/>
+  <dimension ref="A3:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -839,10 +895,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20">
+      <c r="A4" s="22">
         <v>41202</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -853,8 +909,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="21"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -863,7 +919,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -875,7 +931,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="22"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -887,10 +943,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="20">
+      <c r="A8" s="22">
         <v>41203</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -901,8 +957,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -911,8 +967,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
@@ -921,7 +977,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="21"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
@@ -933,7 +989,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="21"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -945,8 +1001,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="21"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -957,8 +1013,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="22"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
@@ -967,10 +1023,10 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="20">
+      <c r="A15" s="22">
         <v>41204</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -981,8 +1037,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="24"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
@@ -991,8 +1047,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="24"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1001,7 +1057,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
@@ -1013,8 +1069,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1025,8 +1081,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="24"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1035,10 +1091,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="20">
+      <c r="A21" s="22">
         <v>41205</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -1049,8 +1105,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="21"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1059,8 +1115,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="21"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
@@ -1069,8 +1125,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="21"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1081,8 +1137,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="21"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1091,8 +1147,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="21"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
@@ -1101,7 +1157,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="21"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1111,10 +1167,10 @@
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="20">
+      <c r="A28" s="22">
         <v>41206</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="19" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -1125,8 +1181,8 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="21"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="12" t="s">
         <v>54</v>
       </c>
@@ -1135,8 +1191,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="21"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="12" t="s">
         <v>56</v>
       </c>
@@ -1145,8 +1201,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="21"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="25"/>
+      <c r="B31" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -1155,18 +1211,18 @@
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="22"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="20">
+      <c r="A33" s="22">
         <v>41207</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -1177,8 +1233,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="24"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="12" t="s">
         <v>61</v>
       </c>
@@ -1187,8 +1243,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="24"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="12" t="s">
         <v>62</v>
       </c>
@@ -1197,8 +1253,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="24"/>
-      <c r="B36" s="18" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="20" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -1207,16 +1263,16 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="24"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="24"/>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1227,34 +1283,125 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="25"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="18" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="22">
+        <v>41208</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="23"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="24"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="22">
+        <v>41209</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="25"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="25"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="25"/>
+      <c r="B46" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="26"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="23">
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A14"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A21:A27"/>
     <mergeCell ref="B28:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/计划表.xlsx
+++ b/trunk/计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,30 @@
   </si>
   <si>
     <t>课本一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第22单元/第2列：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第26单元/第6列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第27单元/第7列：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币市场:1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多元微分：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆模糊，做题方法略懂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +514,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,6 +571,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -866,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D47"/>
+  <dimension ref="A3:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:B47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -895,10 +925,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="22">
+      <c r="A4" s="24">
         <v>41202</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -909,8 +939,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="25"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -919,7 +949,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="25"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -931,7 +961,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="26"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -943,10 +973,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="22">
+      <c r="A8" s="24">
         <v>41203</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -957,8 +987,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="25"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -967,8 +997,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="25"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
@@ -977,7 +1007,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="25"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
@@ -989,7 +1019,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="25"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1001,8 +1031,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="25"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1013,8 +1043,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="26"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1023,10 +1053,10 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="22">
+      <c r="A15" s="24">
         <v>41204</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -1037,8 +1067,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="23"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
@@ -1047,8 +1077,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="23"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1057,7 +1087,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
@@ -1069,8 +1099,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="23"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="22" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1081,8 +1111,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="23"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1091,10 +1121,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="22">
+      <c r="A21" s="24">
         <v>41205</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="21" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -1105,8 +1135,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="25"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1115,8 +1145,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="25"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
@@ -1125,8 +1155,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="25"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1137,8 +1167,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="25"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1147,8 +1177,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="25"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
@@ -1157,7 +1187,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="25"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1167,10 +1197,10 @@
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="22">
+      <c r="A28" s="24">
         <v>41206</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="21" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -1181,8 +1211,8 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="25"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="12" t="s">
         <v>54</v>
       </c>
@@ -1191,8 +1221,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="25"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="12" t="s">
         <v>56</v>
       </c>
@@ -1201,8 +1231,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="25"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="22" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -1211,18 +1241,18 @@
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="26"/>
-      <c r="B32" s="21"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="22">
+      <c r="A33" s="24">
         <v>41207</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -1233,8 +1263,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="23"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="12" t="s">
         <v>61</v>
       </c>
@@ -1243,8 +1273,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="23"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="12" t="s">
         <v>62</v>
       </c>
@@ -1253,8 +1283,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="23"/>
-      <c r="B36" s="20" t="s">
+      <c r="A36" s="25"/>
+      <c r="B36" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -1263,16 +1293,16 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="23"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="23"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="25"/>
+      <c r="B38" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1283,8 +1313,8 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="24"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="8" t="s">
         <v>69</v>
       </c>
@@ -1293,10 +1323,10 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="22">
+      <c r="A40" s="24">
         <v>41208</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="21" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -1307,26 +1337,26 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="23"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="24"/>
-      <c r="B42" s="21"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="22">
+      <c r="A43" s="24">
         <v>41209</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="21" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -1337,8 +1367,8 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="25"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="12" t="s">
         <v>77</v>
       </c>
@@ -1347,8 +1377,8 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="25"/>
-      <c r="B45" s="20"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="12" t="s">
         <v>79</v>
       </c>
@@ -1357,8 +1387,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="25"/>
-      <c r="B46" s="20" t="s">
+      <c r="A46" s="27"/>
+      <c r="B46" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -1369,8 +1399,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="26"/>
-      <c r="B47" s="21"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="17" t="s">
         <v>83</v>
       </c>
@@ -1378,24 +1408,68 @@
         <v>84</v>
       </c>
     </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="24">
+        <v>41210</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="25"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="25"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="25"/>
+      <c r="B51" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="26"/>
+      <c r="B52" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A14"/>
+  <mergeCells count="25">
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
@@ -1403,6 +1477,22 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A43:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/计划表.xlsx
+++ b/trunk/计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,94 @@
   </si>
   <si>
     <t>记忆模糊，做题方法略懂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了课本，看了几道习题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看了课本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍快速课本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一遍辅导书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS-LM I：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币政策：2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重积分：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一类线面积分：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性方程组：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利经济-国际贸易：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次课本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第28单元/第8列：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第27单元/第7列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第23单元/第3列：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第28单元/第8列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第29单元/第9列：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第24单元/第4列：3次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,6 +666,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -590,16 +681,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -896,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D52"/>
+  <dimension ref="A3:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A47"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -925,10 +1016,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="24">
+      <c r="A4" s="25">
         <v>41202</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -939,8 +1030,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="27"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -949,7 +1040,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="27"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -961,7 +1052,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="28"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -973,10 +1064,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="24">
+      <c r="A8" s="25">
         <v>41203</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -987,8 +1078,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="27"/>
-      <c r="B9" s="22"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -997,8 +1088,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="27"/>
-      <c r="B10" s="22"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1007,7 +1098,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="27"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1019,7 +1110,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1031,8 +1122,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="27"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1043,8 +1134,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="28"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1053,10 +1144,10 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="24">
+      <c r="A15" s="25">
         <v>41204</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -1067,8 +1158,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="25"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
@@ -1077,8 +1168,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="25"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1087,7 +1178,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="25"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
@@ -1099,8 +1190,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="25"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1111,8 +1202,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="25"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1121,10 +1212,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="24">
+      <c r="A21" s="25">
         <v>41205</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="22" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -1135,8 +1226,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="27"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1145,8 +1236,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="27"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
@@ -1155,8 +1246,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="27"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1167,8 +1258,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="27"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1177,8 +1268,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="27"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
@@ -1187,7 +1278,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="27"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1197,10 +1288,10 @@
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="24">
+      <c r="A28" s="25">
         <v>41206</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="22" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -1211,8 +1302,8 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="27"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="12" t="s">
         <v>54</v>
       </c>
@@ -1221,8 +1312,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="27"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="12" t="s">
         <v>56</v>
       </c>
@@ -1231,8 +1322,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="27"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -1241,18 +1332,18 @@
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="28"/>
-      <c r="B32" s="23"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="24">
+      <c r="A33" s="25">
         <v>41207</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -1263,8 +1354,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="25"/>
-      <c r="B34" s="22"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="12" t="s">
         <v>61</v>
       </c>
@@ -1273,8 +1364,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="25"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="12" t="s">
         <v>62</v>
       </c>
@@ -1283,8 +1374,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="25"/>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -1293,16 +1384,16 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="25"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="25"/>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="23" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1313,8 +1404,8 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="26"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="8" t="s">
         <v>69</v>
       </c>
@@ -1323,10 +1414,10 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="24">
+      <c r="A40" s="25">
         <v>41208</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -1337,26 +1428,26 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="25"/>
-      <c r="B41" s="22"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="26"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="24">
+      <c r="A43" s="25">
         <v>41209</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="22" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -1367,8 +1458,8 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="27"/>
-      <c r="B44" s="22"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="12" t="s">
         <v>77</v>
       </c>
@@ -1377,8 +1468,8 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="27"/>
-      <c r="B45" s="22"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="23"/>
       <c r="C45" s="12" t="s">
         <v>79</v>
       </c>
@@ -1387,8 +1478,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="27"/>
-      <c r="B46" s="22" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -1399,8 +1490,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="28"/>
-      <c r="B47" s="23"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="17" t="s">
         <v>83</v>
       </c>
@@ -1409,10 +1500,10 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="24">
+      <c r="A48" s="25">
         <v>41210</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="14" t="s">
@@ -1423,8 +1514,8 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="25"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="12" t="s">
         <v>86</v>
       </c>
@@ -1433,8 +1524,8 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="25"/>
-      <c r="B50" s="22"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="12" t="s">
         <v>87</v>
       </c>
@@ -1443,7 +1534,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="25"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="19" t="s">
         <v>1</v>
       </c>
@@ -1455,7 +1546,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="26"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="20" t="s">
         <v>2</v>
       </c>
@@ -1466,33 +1557,183 @@
         <v>90</v>
       </c>
     </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="25">
+        <v>41212</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="28"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="29"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="25">
+        <v>41213</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="28"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="28"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="28"/>
+      <c r="B59" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="28"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="28"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="28"/>
+      <c r="B62" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="28"/>
+      <c r="B63" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="28"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="29"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="31">
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A56:A65"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="A48:A52"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A33:A39"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A21:A27"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A43:A47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/计划表.xlsx
+++ b/trunk/计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +467,82 @@
   </si>
   <si>
     <t>第24单元/第4列：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资：2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第30单元/第10列：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第29单元/第9列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第25单元/第5列：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性代数1-3章：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费：2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS-LM II: 3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性代数4-5章：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第30单元/第10列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第11单元/第11列：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第26单元/第6列：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性代数6章：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策外部性：1次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -669,15 +745,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -685,6 +767,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -987,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D65"/>
+  <dimension ref="A3:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1016,10 +1101,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="25">
+      <c r="A4" s="27">
         <v>41202</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1030,8 +1115,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="26"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1040,7 +1125,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="26"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1137,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1064,10 +1149,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="25">
+      <c r="A8" s="27">
         <v>41203</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1078,8 +1163,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="26"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1088,8 +1173,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="26"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1098,7 +1183,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="26"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1110,7 +1195,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="26"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1122,8 +1207,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="26"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1134,8 +1219,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="27"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1144,10 +1229,10 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="25">
+      <c r="A15" s="27">
         <v>41204</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -1158,8 +1243,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="28"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
@@ -1168,8 +1253,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="28"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1178,7 +1263,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="28"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
@@ -1190,8 +1275,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="28"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="26" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1202,8 +1287,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="28"/>
-      <c r="B20" s="23"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1212,10 +1297,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="25">
+      <c r="A21" s="27">
         <v>41205</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -1226,8 +1311,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="26"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1236,8 +1321,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="26"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
@@ -1246,8 +1331,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="26"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1258,8 +1343,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="26"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1268,8 +1353,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="26"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
@@ -1278,7 +1363,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="26"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1288,10 +1373,10 @@
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="25">
+      <c r="A28" s="27">
         <v>41206</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="25" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -1302,8 +1387,8 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="26"/>
-      <c r="B29" s="23"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="12" t="s">
         <v>54</v>
       </c>
@@ -1312,8 +1397,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="26"/>
-      <c r="B30" s="23"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="12" t="s">
         <v>56</v>
       </c>
@@ -1322,8 +1407,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="26"/>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="26" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -1332,18 +1417,18 @@
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="27"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="25">
+      <c r="A33" s="27">
         <v>41207</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -1354,8 +1439,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="28"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="12" t="s">
         <v>61</v>
       </c>
@@ -1364,8 +1449,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="28"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="12" t="s">
         <v>62</v>
       </c>
@@ -1374,8 +1459,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="28"/>
-      <c r="B36" s="23" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="26" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -1384,16 +1469,16 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="28"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="28"/>
-      <c r="B38" s="23" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1404,8 +1489,8 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="29"/>
-      <c r="B39" s="24"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="8" t="s">
         <v>69</v>
       </c>
@@ -1414,10 +1499,10 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="25">
+      <c r="A40" s="27">
         <v>41208</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="25" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -1428,26 +1513,26 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="28"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="29"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="25">
+      <c r="A43" s="27">
         <v>41209</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="25" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -1458,8 +1543,8 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="26"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="12" t="s">
         <v>77</v>
       </c>
@@ -1468,8 +1553,8 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="26"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="12" t="s">
         <v>79</v>
       </c>
@@ -1478,8 +1563,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="26"/>
-      <c r="B46" s="23" t="s">
+      <c r="A46" s="28"/>
+      <c r="B46" s="26" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -1490,8 +1575,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="27"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="17" t="s">
         <v>83</v>
       </c>
@@ -1500,10 +1585,10 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="25">
+      <c r="A48" s="27">
         <v>41210</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="14" t="s">
@@ -1514,8 +1599,8 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="28"/>
-      <c r="B49" s="23"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="12" t="s">
         <v>86</v>
       </c>
@@ -1524,8 +1609,8 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="28"/>
-      <c r="B50" s="23"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="12" t="s">
         <v>87</v>
       </c>
@@ -1534,7 +1619,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="28"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="19" t="s">
         <v>1</v>
       </c>
@@ -1546,7 +1631,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="29"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="20" t="s">
         <v>2</v>
       </c>
@@ -1558,10 +1643,10 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="25">
+      <c r="A53" s="27">
         <v>41212</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -1572,8 +1657,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="28"/>
-      <c r="B54" s="23"/>
+      <c r="A54" s="31"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="12" t="s">
         <v>107</v>
       </c>
@@ -1582,8 +1667,8 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="29"/>
-      <c r="B55" s="24"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="17" t="s">
         <v>106</v>
       </c>
@@ -1592,10 +1677,10 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="25">
+      <c r="A56" s="27">
         <v>41213</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -1606,8 +1691,8 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="28"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="31"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="12" t="s">
         <v>100</v>
       </c>
@@ -1616,8 +1701,8 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="28"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="12" t="s">
         <v>101</v>
       </c>
@@ -1626,8 +1711,8 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="28"/>
-      <c r="B59" s="23" t="s">
+      <c r="A59" s="31"/>
+      <c r="B59" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -1638,8 +1723,8 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="28"/>
-      <c r="B60" s="23"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="12" t="s">
         <v>97</v>
       </c>
@@ -1648,8 +1733,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="28"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="12" t="s">
         <v>98</v>
       </c>
@@ -1658,7 +1743,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="28"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="21" t="s">
         <v>103</v>
       </c>
@@ -1670,8 +1755,8 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="28"/>
-      <c r="B63" s="23" t="s">
+      <c r="A63" s="31"/>
+      <c r="B63" s="26" t="s">
         <v>109</v>
       </c>
       <c r="C63" s="12" t="s">
@@ -1682,8 +1767,8 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="28"/>
-      <c r="B64" s="23"/>
+      <c r="A64" s="31"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="12" t="s">
         <v>110</v>
       </c>
@@ -1692,8 +1777,8 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="29"/>
-      <c r="B65" s="24"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="17" t="s">
         <v>111</v>
       </c>
@@ -1701,8 +1786,172 @@
         <v>80</v>
       </c>
     </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="27">
+        <v>41214</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="28"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="28"/>
+      <c r="B68" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="28"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="28"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="29"/>
+      <c r="B71" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="27">
+        <v>41215</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="28"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="28"/>
+      <c r="B74" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="29"/>
+      <c r="B75" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="27">
+        <v>41216</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="31"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="31"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="32"/>
+      <c r="B79" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="38">
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A76:A79"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="B53:B55"/>
@@ -1734,6 +1983,11 @@
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/计划表.xlsx
+++ b/trunk/计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="147">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,6 +543,66 @@
   </si>
   <si>
     <t>公共政策外部性：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放经济短期：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第12单元/第12列：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第11单元/第11列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第27单元/第7列：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总供给：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性代数1章：2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几道练习题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共政策/企业行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第12单元/第12列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第13单元/第13列：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府政策/政府债务：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗日战争：1次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,9 +811,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,19 +835,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1072,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D79"/>
+  <dimension ref="A3:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1101,10 +1173,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="27">
+      <c r="A4" s="31">
         <v>41202</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1115,8 +1187,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +1197,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="28"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1137,7 +1209,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="29"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1149,10 +1221,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="27">
+      <c r="A8" s="31">
         <v>41203</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1163,8 +1235,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="28"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1173,8 +1245,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="28"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1183,7 +1255,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="28"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1195,7 +1267,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="28"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1207,8 +1279,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="28"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1219,8 +1291,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1229,10 +1301,10 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="27">
+      <c r="A15" s="31">
         <v>41204</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -1243,8 +1315,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="31"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
@@ -1253,8 +1325,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="31"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1263,7 +1335,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
@@ -1275,8 +1347,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="31"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="30" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1287,8 +1359,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="31"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1297,10 +1369,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="27">
+      <c r="A21" s="31">
         <v>41205</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="29" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -1311,8 +1383,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="28"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1321,8 +1393,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="28"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
@@ -1331,8 +1403,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="28"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1343,8 +1415,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="28"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1353,8 +1425,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="28"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
@@ -1363,7 +1435,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="28"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1373,10 +1445,10 @@
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="27">
+      <c r="A28" s="31">
         <v>41206</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -1387,8 +1459,8 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="28"/>
-      <c r="B29" s="26"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="12" t="s">
         <v>54</v>
       </c>
@@ -1397,8 +1469,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="28"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="12" t="s">
         <v>56</v>
       </c>
@@ -1407,8 +1479,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="28"/>
-      <c r="B31" s="26" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -1417,18 +1489,18 @@
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="27">
+      <c r="A33" s="31">
         <v>41207</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -1439,8 +1511,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="31"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="12" t="s">
         <v>61</v>
       </c>
@@ -1449,8 +1521,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="31"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="12" t="s">
         <v>62</v>
       </c>
@@ -1459,8 +1531,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="31"/>
-      <c r="B36" s="26" t="s">
+      <c r="A36" s="32"/>
+      <c r="B36" s="30" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -1469,16 +1541,16 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="31"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="31"/>
-      <c r="B38" s="26" t="s">
+      <c r="A38" s="32"/>
+      <c r="B38" s="30" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1489,8 +1561,8 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="32"/>
-      <c r="B39" s="30"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="8" t="s">
         <v>69</v>
       </c>
@@ -1499,10 +1571,10 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="27">
+      <c r="A40" s="31">
         <v>41208</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="29" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -1513,26 +1585,26 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="31"/>
-      <c r="B41" s="26"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="32"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="27">
+      <c r="A43" s="31">
         <v>41209</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -1543,8 +1615,8 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="28"/>
-      <c r="B44" s="26"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="12" t="s">
         <v>77</v>
       </c>
@@ -1553,8 +1625,8 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="28"/>
-      <c r="B45" s="26"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="12" t="s">
         <v>79</v>
       </c>
@@ -1563,8 +1635,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="28"/>
-      <c r="B46" s="26" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -1575,8 +1647,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="29"/>
-      <c r="B47" s="30"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="34"/>
       <c r="C47" s="17" t="s">
         <v>83</v>
       </c>
@@ -1585,10 +1657,10 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="27">
+      <c r="A48" s="31">
         <v>41210</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="14" t="s">
@@ -1599,8 +1671,8 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="31"/>
-      <c r="B49" s="26"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="12" t="s">
         <v>86</v>
       </c>
@@ -1609,8 +1681,8 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="31"/>
-      <c r="B50" s="26"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="12" t="s">
         <v>87</v>
       </c>
@@ -1619,7 +1691,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="31"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="19" t="s">
         <v>1</v>
       </c>
@@ -1631,7 +1703,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="32"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="20" t="s">
         <v>2</v>
       </c>
@@ -1643,10 +1715,10 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="27">
+      <c r="A53" s="31">
         <v>41212</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -1657,8 +1729,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="31"/>
-      <c r="B54" s="26"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="12" t="s">
         <v>107</v>
       </c>
@@ -1667,8 +1739,8 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="32"/>
-      <c r="B55" s="30"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="17" t="s">
         <v>106</v>
       </c>
@@ -1677,10 +1749,10 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="27">
+      <c r="A56" s="31">
         <v>41213</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="29" t="s">
         <v>91</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -1691,8 +1763,8 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="31"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="12" t="s">
         <v>100</v>
       </c>
@@ -1701,8 +1773,8 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="31"/>
-      <c r="B58" s="26"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="12" t="s">
         <v>101</v>
       </c>
@@ -1711,8 +1783,8 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="31"/>
-      <c r="B59" s="26" t="s">
+      <c r="A59" s="32"/>
+      <c r="B59" s="30" t="s">
         <v>102</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -1723,8 +1795,8 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="31"/>
-      <c r="B60" s="26"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="12" t="s">
         <v>97</v>
       </c>
@@ -1733,8 +1805,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="31"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="12" t="s">
         <v>98</v>
       </c>
@@ -1743,7 +1815,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="31"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="21" t="s">
         <v>103</v>
       </c>
@@ -1755,8 +1827,8 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="31"/>
-      <c r="B63" s="26" t="s">
+      <c r="A63" s="32"/>
+      <c r="B63" s="30" t="s">
         <v>109</v>
       </c>
       <c r="C63" s="12" t="s">
@@ -1767,8 +1839,8 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="31"/>
-      <c r="B64" s="26"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="12" t="s">
         <v>110</v>
       </c>
@@ -1777,8 +1849,8 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="32"/>
-      <c r="B65" s="30"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="17" t="s">
         <v>111</v>
       </c>
@@ -1787,10 +1859,10 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="27">
+      <c r="A66" s="31">
         <v>41214</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="29" t="s">
         <v>113</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -1801,8 +1873,8 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="28"/>
-      <c r="B67" s="26"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="12" t="s">
         <v>115</v>
       </c>
@@ -1811,8 +1883,8 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="28"/>
-      <c r="B68" s="26" t="s">
+      <c r="A68" s="35"/>
+      <c r="B68" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="12" t="s">
@@ -1823,8 +1895,8 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="28"/>
-      <c r="B69" s="26"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="12" t="s">
         <v>118</v>
       </c>
@@ -1833,8 +1905,8 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="28"/>
-      <c r="B70" s="26"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="12" t="s">
         <v>117</v>
       </c>
@@ -1843,7 +1915,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="29"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="22" t="s">
         <v>120</v>
       </c>
@@ -1855,10 +1927,10 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="27">
+      <c r="A72" s="31">
         <v>41215</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="29" t="s">
         <v>113</v>
       </c>
       <c r="C72" s="14" t="s">
@@ -1869,8 +1941,8 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="28"/>
-      <c r="B73" s="26"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="12" t="s">
         <v>124</v>
       </c>
@@ -1879,7 +1951,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="28"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="23" t="s">
         <v>130</v>
       </c>
@@ -1891,7 +1963,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="29"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="22" t="s">
         <v>120</v>
       </c>
@@ -1903,10 +1975,10 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="27">
+      <c r="A76" s="31">
         <v>41216</v>
       </c>
-      <c r="B76" s="25" t="s">
+      <c r="B76" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="14" t="s">
@@ -1917,8 +1989,8 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="31"/>
-      <c r="B77" s="26"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="12" t="s">
         <v>126</v>
       </c>
@@ -1927,8 +1999,8 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="31"/>
-      <c r="B78" s="26"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="12" t="s">
         <v>127</v>
       </c>
@@ -1939,38 +2011,164 @@
     <row r="79" spans="1:4">
       <c r="A79" s="32"/>
       <c r="B79" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="33"/>
+      <c r="B80" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C80" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D80" s="18" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="31">
+        <v>41217</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="32"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="32"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="32"/>
+      <c r="B84" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="32"/>
+      <c r="B85" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="33"/>
+      <c r="B86" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="31">
+        <v>41218</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="32"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="32"/>
+      <c r="B89" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="33"/>
+      <c r="B90" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A53:A55"/>
+  <mergeCells count="42">
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A72:A75"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A56:A65"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B28:B30"/>
@@ -1980,14 +2178,22 @@
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A33:A39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A56:A65"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="A66:A71"/>
     <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/计划表.xlsx
+++ b/trunk/计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="155">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -603,6 +603,38 @@
   </si>
   <si>
     <t>抗日战争：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第13单元/第13列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第15单元/第15列：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第29单元/第9列：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第28单元/第8列:3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线代/矩阵/第1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看一遍，做了几道题，题型有一定映像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为新中国奋斗：1次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,7 +770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,12 +858,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,9 +880,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1144,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D90"/>
+  <dimension ref="A3:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:D90"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1155,7 +1193,7 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="4" max="4" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4">
@@ -1173,10 +1211,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="31">
+      <c r="A4" s="34">
         <v>41202</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1187,8 +1225,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35"/>
-      <c r="B5" s="30"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1235,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1209,7 +1247,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="36"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1221,10 +1259,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="31">
+      <c r="A8" s="34">
         <v>41203</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1235,8 +1273,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35"/>
-      <c r="B9" s="30"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1283,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="35"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1255,7 +1293,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="35"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1267,7 +1305,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="35"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1279,8 +1317,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="35"/>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1291,8 +1329,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="36"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1301,10 +1339,10 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="31">
+      <c r="A15" s="34">
         <v>41204</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -1315,8 +1353,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="32"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
@@ -1325,8 +1363,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="32"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1335,7 +1373,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="32"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
@@ -1347,8 +1385,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="32"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1359,8 +1397,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="32"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="32"/>
       <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1369,10 +1407,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="31">
+      <c r="A21" s="34">
         <v>41205</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -1383,8 +1421,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="35"/>
-      <c r="B22" s="30"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1393,8 +1431,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="35"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
@@ -1403,8 +1441,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="35"/>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1415,8 +1453,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="35"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1425,8 +1463,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="35"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
@@ -1435,7 +1473,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="35"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1445,10 +1483,10 @@
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="31">
+      <c r="A28" s="34">
         <v>41206</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="31" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -1459,8 +1497,8 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="35"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="32"/>
       <c r="C29" s="12" t="s">
         <v>54</v>
       </c>
@@ -1469,8 +1507,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="35"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="32"/>
       <c r="C30" s="12" t="s">
         <v>56</v>
       </c>
@@ -1479,8 +1517,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="35"/>
-      <c r="B31" s="30" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -1489,18 +1527,18 @@
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="36"/>
-      <c r="B32" s="34"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="31">
+      <c r="A33" s="34">
         <v>41207</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -1511,8 +1549,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="32"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="32"/>
       <c r="C34" s="12" t="s">
         <v>61</v>
       </c>
@@ -1521,8 +1559,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="32"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="32"/>
       <c r="C35" s="12" t="s">
         <v>62</v>
       </c>
@@ -1531,8 +1569,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="32"/>
-      <c r="B36" s="30" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="32" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -1541,16 +1579,16 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="32"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="32"/>
-      <c r="B38" s="30" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="32" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1561,8 +1599,8 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="8" t="s">
         <v>69</v>
       </c>
@@ -1571,10 +1609,10 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="31">
+      <c r="A40" s="34">
         <v>41208</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="31" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -1585,26 +1623,26 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="32"/>
-      <c r="B41" s="30"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="32"/>
       <c r="C41" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="17" t="s">
         <v>73</v>
       </c>
       <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="31">
+      <c r="A43" s="34">
         <v>41209</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="31" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -1615,8 +1653,8 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="35"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="12" t="s">
         <v>77</v>
       </c>
@@ -1625,8 +1663,8 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="35"/>
-      <c r="B45" s="30"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="32"/>
       <c r="C45" s="12" t="s">
         <v>79</v>
       </c>
@@ -1635,8 +1673,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="35"/>
-      <c r="B46" s="30" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -1647,8 +1685,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="36"/>
-      <c r="B47" s="34"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="17" t="s">
         <v>83</v>
       </c>
@@ -1657,10 +1695,10 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="31">
+      <c r="A48" s="34">
         <v>41210</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="14" t="s">
@@ -1671,8 +1709,8 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="32"/>
-      <c r="B49" s="30"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="32"/>
       <c r="C49" s="12" t="s">
         <v>86</v>
       </c>
@@ -1681,8 +1719,8 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="32"/>
-      <c r="B50" s="30"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="32"/>
       <c r="C50" s="12" t="s">
         <v>87</v>
       </c>
@@ -1691,7 +1729,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="32"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="19" t="s">
         <v>1</v>
       </c>
@@ -1703,7 +1741,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="33"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="20" t="s">
         <v>2</v>
       </c>
@@ -1715,10 +1753,10 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="31">
+      <c r="A53" s="34">
         <v>41212</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -1729,8 +1767,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="32"/>
-      <c r="B54" s="30"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="32"/>
       <c r="C54" s="12" t="s">
         <v>107</v>
       </c>
@@ -1739,8 +1777,8 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="33"/>
-      <c r="B55" s="34"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="17" t="s">
         <v>106</v>
       </c>
@@ -1749,10 +1787,10 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="31">
+      <c r="A56" s="34">
         <v>41213</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="31" t="s">
         <v>91</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -1763,8 +1801,8 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="32"/>
-      <c r="B57" s="30"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="32"/>
       <c r="C57" s="12" t="s">
         <v>100</v>
       </c>
@@ -1773,8 +1811,8 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="32"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="32"/>
       <c r="C58" s="12" t="s">
         <v>101</v>
       </c>
@@ -1783,8 +1821,8 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="32"/>
-      <c r="B59" s="30" t="s">
+      <c r="A59" s="35"/>
+      <c r="B59" s="32" t="s">
         <v>102</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -1795,8 +1833,8 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="32"/>
-      <c r="B60" s="30"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="32"/>
       <c r="C60" s="12" t="s">
         <v>97</v>
       </c>
@@ -1805,8 +1843,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="32"/>
-      <c r="B61" s="30"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="32"/>
       <c r="C61" s="12" t="s">
         <v>98</v>
       </c>
@@ -1815,7 +1853,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="32"/>
+      <c r="A62" s="35"/>
       <c r="B62" s="21" t="s">
         <v>103</v>
       </c>
@@ -1827,8 +1865,8 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="32"/>
-      <c r="B63" s="30" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="32" t="s">
         <v>109</v>
       </c>
       <c r="C63" s="12" t="s">
@@ -1839,8 +1877,8 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="32"/>
-      <c r="B64" s="30"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="32"/>
       <c r="C64" s="12" t="s">
         <v>110</v>
       </c>
@@ -1849,8 +1887,8 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="33"/>
-      <c r="B65" s="34"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="17" t="s">
         <v>111</v>
       </c>
@@ -1859,10 +1897,10 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="31">
+      <c r="A66" s="34">
         <v>41214</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="31" t="s">
         <v>113</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -1873,8 +1911,8 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="35"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="12" t="s">
         <v>115</v>
       </c>
@@ -1883,8 +1921,8 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="35"/>
-      <c r="B68" s="30" t="s">
+      <c r="A68" s="37"/>
+      <c r="B68" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="12" t="s">
@@ -1895,8 +1933,8 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="35"/>
-      <c r="B69" s="30"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="32"/>
       <c r="C69" s="12" t="s">
         <v>118</v>
       </c>
@@ -1905,8 +1943,8 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="35"/>
-      <c r="B70" s="30"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="12" t="s">
         <v>117</v>
       </c>
@@ -1915,7 +1953,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="36"/>
+      <c r="A71" s="38"/>
       <c r="B71" s="22" t="s">
         <v>120</v>
       </c>
@@ -1927,10 +1965,10 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="31">
+      <c r="A72" s="34">
         <v>41215</v>
       </c>
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="31" t="s">
         <v>113</v>
       </c>
       <c r="C72" s="14" t="s">
@@ -1941,8 +1979,8 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="35"/>
-      <c r="B73" s="30"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="32"/>
       <c r="C73" s="12" t="s">
         <v>124</v>
       </c>
@@ -1951,7 +1989,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="35"/>
+      <c r="A74" s="37"/>
       <c r="B74" s="23" t="s">
         <v>130</v>
       </c>
@@ -1963,7 +2001,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="36"/>
+      <c r="A75" s="38"/>
       <c r="B75" s="22" t="s">
         <v>120</v>
       </c>
@@ -1975,10 +2013,10 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="31">
+      <c r="A76" s="34">
         <v>41216</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="14" t="s">
@@ -1989,8 +2027,8 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="32"/>
-      <c r="B77" s="30"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="32"/>
       <c r="C77" s="12" t="s">
         <v>126</v>
       </c>
@@ -1999,8 +2037,8 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="32"/>
-      <c r="B78" s="30"/>
+      <c r="A78" s="35"/>
+      <c r="B78" s="32"/>
       <c r="C78" s="12" t="s">
         <v>127</v>
       </c>
@@ -2009,7 +2047,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="32"/>
+      <c r="A79" s="35"/>
       <c r="B79" s="24" t="s">
         <v>133</v>
       </c>
@@ -2021,7 +2059,7 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="33"/>
+      <c r="A80" s="36"/>
       <c r="B80" s="26" t="s">
         <v>138</v>
       </c>
@@ -2033,10 +2071,10 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="31">
+      <c r="A81" s="34">
         <v>41217</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="14" t="s">
@@ -2047,8 +2085,8 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="32"/>
-      <c r="B82" s="30"/>
+      <c r="A82" s="35"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="12" t="s">
         <v>135</v>
       </c>
@@ -2057,8 +2095,8 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="32"/>
-      <c r="B83" s="30"/>
+      <c r="A83" s="35"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="12" t="s">
         <v>134</v>
       </c>
@@ -2067,7 +2105,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="32"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="25" t="s">
         <v>1</v>
       </c>
@@ -2079,7 +2117,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="32"/>
+      <c r="A85" s="35"/>
       <c r="B85" s="25" t="s">
         <v>26</v>
       </c>
@@ -2091,7 +2129,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="33"/>
+      <c r="A86" s="36"/>
       <c r="B86" s="26" t="s">
         <v>138</v>
       </c>
@@ -2103,10 +2141,10 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="31">
+      <c r="A87" s="34">
         <v>41218</v>
       </c>
-      <c r="B87" s="29" t="s">
+      <c r="B87" s="31" t="s">
         <v>144</v>
       </c>
       <c r="C87" s="14" t="s">
@@ -2117,8 +2155,8 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="32"/>
-      <c r="B88" s="30"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="32"/>
       <c r="C88" s="12" t="s">
         <v>143</v>
       </c>
@@ -2127,7 +2165,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="32"/>
+      <c r="A89" s="35"/>
       <c r="B89" s="27" t="s">
         <v>1</v>
       </c>
@@ -2139,7 +2177,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="33"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="28" t="s">
         <v>52</v>
       </c>
@@ -2150,25 +2188,94 @@
         <v>45</v>
       </c>
     </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="34">
+        <v>41219</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="37"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="37"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="35"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="35"/>
+      <c r="B95" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="35"/>
+      <c r="B96" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="36"/>
+      <c r="B97" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A21:A27"/>
+  <mergeCells count="44">
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="B91:B94"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B28:B30"/>
@@ -2178,22 +2285,35 @@
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A33:A39"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A72:A75"/>
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="A81:A86"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A76:A80"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A43:A47"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="A56:A65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="B72:B73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/计划表.xlsx
+++ b/trunk/计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="169">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -635,6 +635,62 @@
   </si>
   <si>
     <t>为新中国奋斗：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第30单元/第10列:3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第14单元/第14列:2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第14单元/第14列：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写作150句/1/15:1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看一遍，记一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费：3次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看一遍基本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垄断：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看一遍课本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课本一遍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,7 +826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,28 +920,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D97"/>
+  <dimension ref="A3:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:A97"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1214,7 +1279,7 @@
       <c r="A4" s="34">
         <v>41202</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1225,8 +1290,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="37"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1300,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="37"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1247,7 +1312,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="38"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1262,7 +1327,7 @@
       <c r="A8" s="34">
         <v>41203</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1273,8 +1338,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="37"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1283,8 +1348,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="37"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1293,7 +1358,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="37"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1305,7 +1370,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="37"/>
+      <c r="A12" s="35"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1317,8 +1382,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="37"/>
-      <c r="B13" s="32" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1329,8 +1394,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="38"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1342,7 +1407,7 @@
       <c r="A15" s="34">
         <v>41204</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -1353,8 +1418,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="35"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
@@ -1363,8 +1428,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="35"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1373,7 +1438,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="35"/>
+      <c r="A18" s="37"/>
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
@@ -1385,8 +1450,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="35"/>
-      <c r="B19" s="32" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="33" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1397,8 +1462,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="35"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1410,7 +1475,7 @@
       <c r="A21" s="34">
         <v>41205</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="32" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -1421,8 +1486,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="37"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1431,8 +1496,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="37"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
@@ -1441,8 +1506,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="37"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1453,8 +1518,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="37"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1463,8 +1528,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="37"/>
-      <c r="B26" s="32"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
@@ -1473,7 +1538,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="37"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1486,7 +1551,7 @@
       <c r="A28" s="34">
         <v>41206</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="32" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -1497,8 +1562,8 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="37"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="12" t="s">
         <v>54</v>
       </c>
@@ -1507,8 +1572,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="37"/>
-      <c r="B30" s="32"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="12" t="s">
         <v>56</v>
       </c>
@@ -1517,8 +1582,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="37"/>
-      <c r="B31" s="32" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="33" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -1527,8 +1592,8 @@
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="38"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="17" t="s">
         <v>59</v>
       </c>
@@ -1538,7 +1603,7 @@
       <c r="A33" s="34">
         <v>41207</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="32" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -1549,8 +1614,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="35"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="12" t="s">
         <v>61</v>
       </c>
@@ -1559,8 +1624,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="35"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="12" t="s">
         <v>62</v>
       </c>
@@ -1569,8 +1634,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="35"/>
-      <c r="B36" s="32" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="33" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -1579,16 +1644,16 @@
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="35"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="35"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="33" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1599,8 +1664,8 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="36"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="8" t="s">
         <v>69</v>
       </c>
@@ -1612,7 +1677,7 @@
       <c r="A40" s="34">
         <v>41208</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="32" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -1623,16 +1688,16 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="35"/>
-      <c r="B41" s="32"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="36"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="17" t="s">
         <v>73</v>
       </c>
@@ -1642,7 +1707,7 @@
       <c r="A43" s="34">
         <v>41209</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="32" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -1653,8 +1718,8 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="37"/>
-      <c r="B44" s="32"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="12" t="s">
         <v>77</v>
       </c>
@@ -1663,8 +1728,8 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="37"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="12" t="s">
         <v>79</v>
       </c>
@@ -1673,8 +1738,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="37"/>
-      <c r="B46" s="32" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="33" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -1685,8 +1750,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="38"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="17" t="s">
         <v>83</v>
       </c>
@@ -1698,7 +1763,7 @@
       <c r="A48" s="34">
         <v>41210</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="14" t="s">
@@ -1709,8 +1774,8 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="35"/>
-      <c r="B49" s="32"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="12" t="s">
         <v>86</v>
       </c>
@@ -1719,8 +1784,8 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="35"/>
-      <c r="B50" s="32"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="12" t="s">
         <v>87</v>
       </c>
@@ -1729,7 +1794,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="35"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="19" t="s">
         <v>1</v>
       </c>
@@ -1741,7 +1806,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="36"/>
+      <c r="A52" s="38"/>
       <c r="B52" s="20" t="s">
         <v>2</v>
       </c>
@@ -1756,7 +1821,7 @@
       <c r="A53" s="34">
         <v>41212</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -1767,8 +1832,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="35"/>
-      <c r="B54" s="32"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="12" t="s">
         <v>107</v>
       </c>
@@ -1777,8 +1842,8 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="36"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="17" t="s">
         <v>106</v>
       </c>
@@ -1790,7 +1855,7 @@
       <c r="A56" s="34">
         <v>41213</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="32" t="s">
         <v>91</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -1801,8 +1866,8 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="35"/>
-      <c r="B57" s="32"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="12" t="s">
         <v>100</v>
       </c>
@@ -1811,8 +1876,8 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="35"/>
-      <c r="B58" s="32"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="12" t="s">
         <v>101</v>
       </c>
@@ -1821,8 +1886,8 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="35"/>
-      <c r="B59" s="32" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="33" t="s">
         <v>102</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -1833,8 +1898,8 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="35"/>
-      <c r="B60" s="32"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="12" t="s">
         <v>97</v>
       </c>
@@ -1843,8 +1908,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="35"/>
-      <c r="B61" s="32"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="12" t="s">
         <v>98</v>
       </c>
@@ -1853,7 +1918,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="35"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="21" t="s">
         <v>103</v>
       </c>
@@ -1865,8 +1930,8 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="35"/>
-      <c r="B63" s="32" t="s">
+      <c r="A63" s="37"/>
+      <c r="B63" s="33" t="s">
         <v>109</v>
       </c>
       <c r="C63" s="12" t="s">
@@ -1877,8 +1942,8 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="35"/>
-      <c r="B64" s="32"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="12" t="s">
         <v>110</v>
       </c>
@@ -1887,8 +1952,8 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="36"/>
-      <c r="B65" s="33"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="17" t="s">
         <v>111</v>
       </c>
@@ -1900,7 +1965,7 @@
       <c r="A66" s="34">
         <v>41214</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="32" t="s">
         <v>113</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -1911,8 +1976,8 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="37"/>
-      <c r="B67" s="32"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="12" t="s">
         <v>115</v>
       </c>
@@ -1921,8 +1986,8 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="37"/>
-      <c r="B68" s="32" t="s">
+      <c r="A68" s="35"/>
+      <c r="B68" s="33" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="12" t="s">
@@ -1933,8 +1998,8 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="37"/>
-      <c r="B69" s="32"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="12" t="s">
         <v>118</v>
       </c>
@@ -1943,8 +2008,8 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="37"/>
-      <c r="B70" s="32"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="12" t="s">
         <v>117</v>
       </c>
@@ -1953,7 +2018,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="38"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="22" t="s">
         <v>120</v>
       </c>
@@ -1968,7 +2033,7 @@
       <c r="A72" s="34">
         <v>41215</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="32" t="s">
         <v>113</v>
       </c>
       <c r="C72" s="14" t="s">
@@ -1979,8 +2044,8 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="37"/>
-      <c r="B73" s="32"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="12" t="s">
         <v>124</v>
       </c>
@@ -1989,7 +2054,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="37"/>
+      <c r="A74" s="35"/>
       <c r="B74" s="23" t="s">
         <v>130</v>
       </c>
@@ -2001,7 +2066,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="38"/>
+      <c r="A75" s="36"/>
       <c r="B75" s="22" t="s">
         <v>120</v>
       </c>
@@ -2016,7 +2081,7 @@
       <c r="A76" s="34">
         <v>41216</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="14" t="s">
@@ -2027,8 +2092,8 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="35"/>
-      <c r="B77" s="32"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="12" t="s">
         <v>126</v>
       </c>
@@ -2037,8 +2102,8 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="35"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="12" t="s">
         <v>127</v>
       </c>
@@ -2047,7 +2112,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="35"/>
+      <c r="A79" s="37"/>
       <c r="B79" s="24" t="s">
         <v>133</v>
       </c>
@@ -2059,7 +2124,7 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="36"/>
+      <c r="A80" s="38"/>
       <c r="B80" s="26" t="s">
         <v>138</v>
       </c>
@@ -2074,7 +2139,7 @@
       <c r="A81" s="34">
         <v>41217</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="14" t="s">
@@ -2085,8 +2150,8 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="35"/>
-      <c r="B82" s="32"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="12" t="s">
         <v>135</v>
       </c>
@@ -2095,8 +2160,8 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="35"/>
-      <c r="B83" s="32"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="12" t="s">
         <v>134</v>
       </c>
@@ -2105,7 +2170,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="35"/>
+      <c r="A84" s="37"/>
       <c r="B84" s="25" t="s">
         <v>1</v>
       </c>
@@ -2117,7 +2182,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="35"/>
+      <c r="A85" s="37"/>
       <c r="B85" s="25" t="s">
         <v>26</v>
       </c>
@@ -2129,7 +2194,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="36"/>
+      <c r="A86" s="38"/>
       <c r="B86" s="26" t="s">
         <v>138</v>
       </c>
@@ -2144,7 +2209,7 @@
       <c r="A87" s="34">
         <v>41218</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="32" t="s">
         <v>144</v>
       </c>
       <c r="C87" s="14" t="s">
@@ -2155,8 +2220,8 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="35"/>
-      <c r="B88" s="32"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="12" t="s">
         <v>143</v>
       </c>
@@ -2165,7 +2230,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="35"/>
+      <c r="A89" s="37"/>
       <c r="B89" s="27" t="s">
         <v>1</v>
       </c>
@@ -2177,7 +2242,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="36"/>
+      <c r="A90" s="38"/>
       <c r="B90" s="28" t="s">
         <v>52</v>
       </c>
@@ -2192,7 +2257,7 @@
       <c r="A91" s="34">
         <v>41219</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="14" t="s">
@@ -2203,8 +2268,8 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="37"/>
-      <c r="B92" s="32"/>
+      <c r="A92" s="35"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="12" t="s">
         <v>149</v>
       </c>
@@ -2213,8 +2278,8 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="37"/>
-      <c r="B93" s="32"/>
+      <c r="A93" s="35"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="12" t="s">
         <v>147</v>
       </c>
@@ -2223,17 +2288,17 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="35"/>
-      <c r="B94" s="32"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="35"/>
+      <c r="A95" s="37"/>
       <c r="B95" s="29" t="s">
         <v>1</v>
       </c>
@@ -2245,7 +2310,7 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="35"/>
+      <c r="A96" s="37"/>
       <c r="B96" s="29" t="s">
         <v>151</v>
       </c>
@@ -2257,7 +2322,7 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="36"/>
+      <c r="A97" s="38"/>
       <c r="B97" s="30" t="s">
         <v>52</v>
       </c>
@@ -2268,14 +2333,119 @@
         <v>45</v>
       </c>
     </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="34">
+        <v>41220</v>
+      </c>
+      <c r="B98" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="37"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="37"/>
+      <c r="B100" s="33"/>
+      <c r="C100" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="37"/>
+      <c r="B101" s="33"/>
+      <c r="C101" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="37"/>
+      <c r="B102" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="37"/>
+      <c r="B103" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="37"/>
+      <c r="B104" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="38"/>
+      <c r="B105" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A91:A97"/>
-    <mergeCell ref="B91:B94"/>
+  <mergeCells count="46">
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A98:A105"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A56:A65"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A21:A27"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B28:B30"/>
@@ -2287,20 +2457,15 @@
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A21:A27"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A14"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A91:A97"/>
+    <mergeCell ref="B91:B94"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="A87:A90"/>
     <mergeCell ref="A72:A75"/>
@@ -2308,12 +2473,6 @@
     <mergeCell ref="A81:A86"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="A76:A80"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A56:A65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/计划表.xlsx
+++ b/trunk/计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="180">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,6 +691,50 @@
   </si>
   <si>
     <t>课本一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课后习题一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济变量：4次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不确定性：1次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-Z图片收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听一遍，看一遍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012/11/8-12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +967,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,25 +982,28 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1247,17 +1300,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D105"/>
+  <dimension ref="A3:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1276,10 +1329,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="34">
+      <c r="A4" s="36">
         <v>41202</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1290,8 +1343,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1353,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
@@ -1312,7 +1365,7 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="36"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1324,10 +1377,10 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="34">
+      <c r="A8" s="36">
         <v>41203</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1338,8 +1391,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1348,8 +1401,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="35"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
@@ -1358,7 +1411,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="35"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="10" t="s">
         <v>26</v>
       </c>
@@ -1370,7 +1423,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="35"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1382,8 +1435,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="35"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -1394,7 +1447,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="36"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="39"/>
       <c r="C14" s="8" t="s">
         <v>24</v>
@@ -1404,10 +1457,10 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="34">
+      <c r="A15" s="36">
         <v>41204</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -1419,7 +1472,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="37"/>
-      <c r="B16" s="33"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
@@ -1429,7 +1482,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="37"/>
-      <c r="B17" s="33"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
@@ -1451,7 +1504,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="37"/>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1463,7 +1516,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="37"/>
-      <c r="B20" s="33"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
@@ -1472,10 +1525,10 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="34">
+      <c r="A21" s="36">
         <v>41205</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="14" t="s">
@@ -1486,8 +1539,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="35"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="12" t="s">
         <v>43</v>
       </c>
@@ -1496,8 +1549,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="35"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
@@ -1506,8 +1559,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="35"/>
-      <c r="B24" s="33" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1518,8 +1571,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="35"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="4" t="s">
         <v>47</v>
       </c>
@@ -1528,8 +1581,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="35"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
@@ -1538,7 +1591,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="35"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="16" t="s">
         <v>52</v>
       </c>
@@ -1548,10 +1601,10 @@
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="34">
+      <c r="A28" s="36">
         <v>41206</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="34" t="s">
         <v>57</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -1562,8 +1615,8 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="35"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="12" t="s">
         <v>54</v>
       </c>
@@ -1572,8 +1625,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="35"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="12" t="s">
         <v>56</v>
       </c>
@@ -1582,8 +1635,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="35"/>
-      <c r="B31" s="33" t="s">
+      <c r="A31" s="40"/>
+      <c r="B31" s="35" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -1592,7 +1645,7 @@
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="36"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="39"/>
       <c r="C32" s="17" t="s">
         <v>59</v>
@@ -1600,10 +1653,10 @@
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="34">
+      <c r="A33" s="36">
         <v>41207</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="34" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -1615,7 +1668,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="37"/>
-      <c r="B34" s="33"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="12" t="s">
         <v>61</v>
       </c>
@@ -1625,7 +1678,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="37"/>
-      <c r="B35" s="33"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="12" t="s">
         <v>62</v>
       </c>
@@ -1635,7 +1688,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="37"/>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="35" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="12" t="s">
@@ -1645,7 +1698,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="37"/>
-      <c r="B37" s="33"/>
+      <c r="B37" s="35"/>
       <c r="C37" s="12" t="s">
         <v>59</v>
       </c>
@@ -1653,7 +1706,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="37"/>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="35" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -1674,10 +1727,10 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="34">
+      <c r="A40" s="36">
         <v>41208</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="34" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -1689,7 +1742,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="37"/>
-      <c r="B41" s="33"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="12" t="s">
         <v>72</v>
       </c>
@@ -1704,10 +1757,10 @@
       <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="34">
+      <c r="A43" s="36">
         <v>41209</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="34" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -1718,8 +1771,8 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="35"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="12" t="s">
         <v>77</v>
       </c>
@@ -1728,8 +1781,8 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="35"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="35"/>
       <c r="C45" s="12" t="s">
         <v>79</v>
       </c>
@@ -1738,8 +1791,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="35"/>
-      <c r="B46" s="33" t="s">
+      <c r="A46" s="40"/>
+      <c r="B46" s="35" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="12" t="s">
@@ -1750,7 +1803,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="36"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="39"/>
       <c r="C47" s="17" t="s">
         <v>83</v>
@@ -1760,10 +1813,10 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="34">
+      <c r="A48" s="36">
         <v>41210</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="14" t="s">
@@ -1775,7 +1828,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="37"/>
-      <c r="B49" s="33"/>
+      <c r="B49" s="35"/>
       <c r="C49" s="12" t="s">
         <v>86</v>
       </c>
@@ -1785,7 +1838,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="37"/>
-      <c r="B50" s="33"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="12" t="s">
         <v>87</v>
       </c>
@@ -1818,10 +1871,10 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="34">
+      <c r="A53" s="36">
         <v>41212</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C53" s="14" t="s">
@@ -1833,7 +1886,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="37"/>
-      <c r="B54" s="33"/>
+      <c r="B54" s="35"/>
       <c r="C54" s="12" t="s">
         <v>107</v>
       </c>
@@ -1852,10 +1905,10 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="34">
+      <c r="A56" s="36">
         <v>41213</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C56" s="14" t="s">
@@ -1867,7 +1920,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="37"/>
-      <c r="B57" s="33"/>
+      <c r="B57" s="35"/>
       <c r="C57" s="12" t="s">
         <v>100</v>
       </c>
@@ -1877,7 +1930,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="37"/>
-      <c r="B58" s="33"/>
+      <c r="B58" s="35"/>
       <c r="C58" s="12" t="s">
         <v>101</v>
       </c>
@@ -1887,7 +1940,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="37"/>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="35" t="s">
         <v>102</v>
       </c>
       <c r="C59" s="12" t="s">
@@ -1899,7 +1952,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="37"/>
-      <c r="B60" s="33"/>
+      <c r="B60" s="35"/>
       <c r="C60" s="12" t="s">
         <v>97</v>
       </c>
@@ -1909,7 +1962,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="37"/>
-      <c r="B61" s="33"/>
+      <c r="B61" s="35"/>
       <c r="C61" s="12" t="s">
         <v>98</v>
       </c>
@@ -1931,7 +1984,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="37"/>
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="35" t="s">
         <v>109</v>
       </c>
       <c r="C63" s="12" t="s">
@@ -1943,7 +1996,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="37"/>
-      <c r="B64" s="33"/>
+      <c r="B64" s="35"/>
       <c r="C64" s="12" t="s">
         <v>110</v>
       </c>
@@ -1962,10 +2015,10 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="34">
+      <c r="A66" s="36">
         <v>41214</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="34" t="s">
         <v>113</v>
       </c>
       <c r="C66" s="14" t="s">
@@ -1976,8 +2029,8 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="35"/>
-      <c r="B67" s="33"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="35"/>
       <c r="C67" s="12" t="s">
         <v>115</v>
       </c>
@@ -1986,8 +2039,8 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="35"/>
-      <c r="B68" s="33" t="s">
+      <c r="A68" s="40"/>
+      <c r="B68" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="12" t="s">
@@ -1998,8 +2051,8 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="35"/>
-      <c r="B69" s="33"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="35"/>
       <c r="C69" s="12" t="s">
         <v>118</v>
       </c>
@@ -2008,8 +2061,8 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="35"/>
-      <c r="B70" s="33"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="12" t="s">
         <v>117</v>
       </c>
@@ -2018,7 +2071,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="36"/>
+      <c r="A71" s="41"/>
       <c r="B71" s="22" t="s">
         <v>120</v>
       </c>
@@ -2030,10 +2083,10 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="34">
+      <c r="A72" s="36">
         <v>41215</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="34" t="s">
         <v>113</v>
       </c>
       <c r="C72" s="14" t="s">
@@ -2044,8 +2097,8 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="35"/>
-      <c r="B73" s="33"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="12" t="s">
         <v>124</v>
       </c>
@@ -2054,7 +2107,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="35"/>
+      <c r="A74" s="40"/>
       <c r="B74" s="23" t="s">
         <v>130</v>
       </c>
@@ -2066,7 +2119,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="36"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="22" t="s">
         <v>120</v>
       </c>
@@ -2078,10 +2131,10 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="34">
+      <c r="A76" s="36">
         <v>41216</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="14" t="s">
@@ -2093,7 +2146,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="37"/>
-      <c r="B77" s="33"/>
+      <c r="B77" s="35"/>
       <c r="C77" s="12" t="s">
         <v>126</v>
       </c>
@@ -2103,7 +2156,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="37"/>
-      <c r="B78" s="33"/>
+      <c r="B78" s="35"/>
       <c r="C78" s="12" t="s">
         <v>127</v>
       </c>
@@ -2136,10 +2189,10 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="34">
+      <c r="A81" s="36">
         <v>41217</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="14" t="s">
@@ -2151,7 +2204,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="37"/>
-      <c r="B82" s="33"/>
+      <c r="B82" s="35"/>
       <c r="C82" s="12" t="s">
         <v>135</v>
       </c>
@@ -2161,7 +2214,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="37"/>
-      <c r="B83" s="33"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="12" t="s">
         <v>134</v>
       </c>
@@ -2206,10 +2259,10 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="34">
+      <c r="A87" s="36">
         <v>41218</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="34" t="s">
         <v>144</v>
       </c>
       <c r="C87" s="14" t="s">
@@ -2221,7 +2274,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="37"/>
-      <c r="B88" s="33"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="12" t="s">
         <v>143</v>
       </c>
@@ -2254,10 +2307,10 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="34">
+      <c r="A91" s="36">
         <v>41219</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="14" t="s">
@@ -2268,8 +2321,8 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="35"/>
-      <c r="B92" s="33"/>
+      <c r="A92" s="40"/>
+      <c r="B92" s="35"/>
       <c r="C92" s="12" t="s">
         <v>149</v>
       </c>
@@ -2278,8 +2331,8 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="35"/>
-      <c r="B93" s="33"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="35"/>
       <c r="C93" s="12" t="s">
         <v>147</v>
       </c>
@@ -2289,7 +2342,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="37"/>
-      <c r="B94" s="33"/>
+      <c r="B94" s="35"/>
       <c r="C94" s="12" t="s">
         <v>157</v>
       </c>
@@ -2334,10 +2387,10 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="34">
+      <c r="A98" s="36">
         <v>41220</v>
       </c>
-      <c r="B98" s="32" t="s">
+      <c r="B98" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="14" t="s">
@@ -2349,7 +2402,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="37"/>
-      <c r="B99" s="33"/>
+      <c r="B99" s="35"/>
       <c r="C99" s="12" t="s">
         <v>156</v>
       </c>
@@ -2359,7 +2412,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="37"/>
-      <c r="B100" s="33"/>
+      <c r="B100" s="35"/>
       <c r="C100" s="12" t="s">
         <v>148</v>
       </c>
@@ -2369,7 +2422,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="37"/>
-      <c r="B101" s="33"/>
+      <c r="B101" s="35"/>
       <c r="C101" s="12" t="s">
         <v>158</v>
       </c>
@@ -2391,7 +2444,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="37"/>
-      <c r="B103" s="40" t="s">
+      <c r="B103" s="32" t="s">
         <v>161</v>
       </c>
       <c r="C103" s="12" t="s">
@@ -2403,7 +2456,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="37"/>
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="32" t="s">
         <v>164</v>
       </c>
       <c r="C104" s="12" t="s">
@@ -2415,7 +2468,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="38"/>
-      <c r="B105" s="41" t="s">
+      <c r="B105" s="33" t="s">
         <v>165</v>
       </c>
       <c r="C105" s="17" t="s">
@@ -2425,27 +2478,63 @@
         <v>168</v>
       </c>
     </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="37"/>
+      <c r="B107" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="37"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="38"/>
+      <c r="B109" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D109" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="A98:A105"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A56:A65"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A21:A27"/>
+  <mergeCells count="48">
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="A72:A75"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A76:A80"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="A28:A32"/>
     <mergeCell ref="B28:B30"/>
@@ -2460,6 +2549,25 @@
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="A98:A105"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="A56:A65"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="B68:B70"/>
     <mergeCell ref="A66:A71"/>
@@ -2468,11 +2576,6 @@
     <mergeCell ref="B91:B94"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A72:A75"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="A76:A80"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
